--- a/resources/excel/sumber_daya_air.xlsx
+++ b/resources/excel/sumber_daya_air.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f0ef5f86b9659cf/Documents/test-pupr/coba-project/E-Catalogue/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD9E9290-01A3-494E-A53E-9CC02D6C7025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AD9E9290-01A3-494E-A53E-9CC02D6C7025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D1FBD6-C526-40D4-B277-B5B5018A4452}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F09F35F-BC40-40BF-A412-D048FD9AE23E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Balai Besar Wilayah Sungai Sumatera VIII</t>
   </si>
@@ -163,36 +163,6 @@
   </si>
   <si>
     <t>Balai Hidrologi dan Lingkungan Keairan</t>
-  </si>
-  <si>
-    <t>Sekretariat Direktorat Jenderal Sumber Daya Air</t>
-  </si>
-  <si>
-    <t>Direktorat Bina Teknik Sumber Daya Air</t>
-  </si>
-  <si>
-    <t>Direktorat Kepatuhan Intern</t>
-  </si>
-  <si>
-    <t>Direktorat Sistem dan Strategi Pengelolaan Sumber Daya Air</t>
-  </si>
-  <si>
-    <t>Direktorat Irigasi dan Rawa</t>
-  </si>
-  <si>
-    <t>Direktorat Sungai dan Pantai</t>
-  </si>
-  <si>
-    <t>Direktorat Bina Operasi dan Pemeliharaan</t>
-  </si>
-  <si>
-    <t>Direktorat Bendungan dan Danau</t>
-  </si>
-  <si>
-    <t>Direktorat Air Tanah dan Air Baku</t>
-  </si>
-  <si>
-    <t>Pusat Pengendalian Lumpur Sidoarjo</t>
   </si>
 </sst>
 </file>
@@ -544,13 +514,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7111833-6CBD-4D01-AE11-24B73B871F0B}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B56"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -920,86 +893,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
